--- a/biology/Zoologie/Charlie_(film,_1989)/Charlie_(film,_1989).xlsx
+++ b/biology/Zoologie/Charlie_(film,_1989)/Charlie_(film,_1989).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlie ou Charlie, mon héros[1] – Tous les chiens vont au paradis au Canada – (All Dogs Go to Heaven) est un film d'animation américano-irlando-britannique produit et réalisé par Don Bluth et sorti en 1989.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlie ou Charlie, mon héros – Tous les chiens vont au paradis au Canada – (All Dogs Go to Heaven) est un film d'animation américano-irlando-britannique produit et réalisé par Don Bluth et sorti en 1989.
 Le film a été produit aux studios Sullivan-Bluth de Dublin. À sa sortie au cinéma, il était en concurrence directe avec un autre film d'animation : La Petite Sirène des studios Disney. Bien qu'il n'ait pas eu le même succès au box-office que les films précédents produit par Sullivan-Bluth (Fievel et le Nouveau Monde et Le Petit Dinosaure et la Vallée des merveilles), il fut un succès lors de sa sortie en VHS.
 Il a inspiré une suite sortie au cinéma en 1996, une série télévisée (1996-1998) et un film de Noël sorti directement en vidéo (1998).
 </t>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1939, à La Nouvelle-Orléans, Charlie B. Barkin, un chien roublard, espiègle et avec un charme d'escroc, travaille avec son partenaire d'affaires et gangster Carcasse dans un casino construit à même une épave de pétrolier. Carcasse, peu disposé à partager les bénéfices, fait emprisonner Charlie à la fourrière, mais Charlie s'échappe avec l'aide de son meilleur ami Gratouille. Pour rayer Charlie du décor pour de bon, Carcasse et son acolyte, Zigouille, organisent son assassinat.
 Après sa mort, Charlie va au ciel par défaut, en dépit de ne pas avoir fait une seule bonne chose dans sa vie. On lui explique que les chiens étant de nature bonne et serviable, ils ont toujours droit au paradis. Charlie triche avec la mort en volant sa montre de vie (une montre de poche dorée) et en la remontant, lui permettant de revenir sur Terre malgré les supplications de son ange qui lui crie qu'il ne pourra jamais plus revenir. Désormais, si sa montre s'arrête, il mourra à nouveau, mais n'aura plus droit au paradis. Toutefois, aussi longtemps que sa montre de vie continuera de tourner, Charlie sera immortel.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : All Dogs Go to Heaven
 Titre français : Charlie  (titre principal) ; Charlie, mon héros (ressorties VHS et laserdisc)
@@ -562,7 +578,7 @@
 Production : Don Bluth, Gary Goldman, John Pomeroy
 Société de production : Goldcrest Films International, Sullivan Bluth Studios Ireland Limited
 Société de distribution : C/FP Distribution et René Malo Vidéo
-Budget : $13,000,000[2]
+Budget : $13,000,000
 Pays d'origine :  Irlande,  Royaume-Uni,  États-Unis
 Langue : Anglais
 Format : Couleurs - 35 mm - 1,37:1 (1,85:1 étendu) - Son Dolby stéréo
@@ -601,8 +617,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Burt Reynolds : Charlie B. Barkin (Charlie en VF)
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Burt Reynolds : Charlie B. Barkin (Charlie en VF)
 Dom DeLuise : Itchy Itchiford (Gratouille en VF, La Puce en VQ)
 Judith Barsi : Anne-Marie
 Lana Beeson : Anne-Marie (voix chantée)
@@ -616,9 +637,43 @@
 Anna Manahan : Stella Dallas
 Nigel Pegram : Sir Reginald
 Loni Anderson : Flo
-Ken Page : King Gator (le roi Gator en VF)
-Voix françaises
-Richard Darbois : Charlie
+Ken Page : King Gator (le roi Gator en VF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Richard Darbois : Charlie
 Jacques Frantz : Gratouille
 Alexandra Garijo : Anne-Marie
 Céline Monsarrat : Annabelle
@@ -637,9 +692,43 @@
 Gilbert Levy : sbire de Carcasse
 Aurélia Bruno : chiot de Flo
 Lita Recio
-Jean-Paul Richepin
-Voix québécoises
-Ronald France : Charlie
+Jean-Paul Richepin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ronald France : Charlie
 Guy Nadon : La Puce
 Johanne Garneau : Anne-Marie
 Valérie Gagné : Whippet Angel
@@ -657,67 +746,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Charlie_(film,_1989)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> : $27,100,027 (USA)[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charlie_(film,_1989)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlie est sorti aux États-Unis en même temps que La Petite Sirène et fut comparé à son désavantage au film qui marqua la « renaissance de l'animation  Disney » dans les années 1990. Il est néanmoins devenu culte par la suite. La plupart des fans le considèrent comme l'un des meilleurs films de Don Bluth, à côté de Fievel et le Nouveau Monde et Le Petit Dinosaure et la Vallée des merveilles.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -739,13 +767,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlie a fait l'objet d'une adaptation en jeu vidéo en 1989 sur DOS et Amiga sous son titre original All Dogs Go to Heaven. Développé par Penguin Software et éditée par Merit Software, il s'agit d'une compilation de 10 mini-jeux.
-</t>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : $27,100,027 (USA)</t>
         </is>
       </c>
     </row>
@@ -770,15 +799,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sorties vidéo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>En France :
-une VHS est sortie en 1991, éditée par Gaumont Columbia RCA Video. Une réédition est sortie en 1997, éditée cette fois par Gaumont ;
-un DVD est sorti le 1er juin 2005 et est édité par Swift Productions[4]. Une réédition suivra le 5 mars 2013, édité cette fois par Filmedia[5] ;
-une édition Blu-Ray et DVD est prévue le 6 juillet 2022, édité par ESC Éditions.</t>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlie est sorti aux États-Unis en même temps que La Petite Sirène et fut comparé à son désavantage au film qui marqua la « renaissance de l'animation  Disney » dans les années 1990. Il est néanmoins devenu culte par la suite. La plupart des fans le considèrent comme l'un des meilleurs films de Don Bluth, à côté de Fievel et le Nouveau Monde et Le Petit Dinosaure et la Vallée des merveilles.
+</t>
         </is>
       </c>
     </row>
@@ -803,10 +832,80 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlie a fait l'objet d'une adaptation en jeu vidéo en 1989 sur DOS et Amiga sous son titre original All Dogs Go to Heaven. Développé par Penguin Software et éditée par Merit Software, il s'agit d'une compilation de 10 mini-jeux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sorties vidéo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En France :
+une VHS est sortie en 1991, éditée par Gaumont Columbia RCA Video. Une réédition est sortie en 1997, éditée cette fois par Gaumont ;
+un DVD est sorti le 1er juin 2005 et est édité par Swift Productions. Une réédition suivra le 5 mars 2013, édité cette fois par Filmedia ;
+une édition Blu-Ray et DVD est prévue le 6 juillet 2022, édité par ESC Éditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_(film,_1989)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lors de son arrivée au paradis, un ange montre à Charlie son arbre généalogique où figurent son père et sa mère, Loni et Burt :  une référence à Burt Reynolds et Loni Anderson, qui avaient été en couple à une époque.
 Il s'agit du dernier film de la jeune Judith Barsi, qui prête sa voix à Anne-Marie en VO, morte assassinée un an avant la sortie du film aux États-Unis. La chanson Love Survives (L'amour survit) du générique de fin lui est dédiée.
